--- a/biology/Botanique/Yamadori/Yamadori.xlsx
+++ b/biology/Botanique/Yamadori/Yamadori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yamadori est un terme japonais signifiant littéralement "La voie de la montagne". Il est utilisé pour nommer les arbres prélevés directement dans la nature afin de les transformer en  bonsaï.
 À l'origine, il s'agissait d'une pratique plutôt spirituelle liée à la quête de la perfection de la nature. Comme dans une sorte de pèlerinage, l'adepte de bonsaï prenait la route vers les montagnes japonaises et cherchait non seulement un bel arbre mais aussi une sorte de communion avec la nature.
